--- a/MHS/python/RawData/geasamt.xlsx
+++ b/MHS/python/RawData/geasamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeu\Documents\0 Studium\Master\1. Semester\ESP-PÜ\Git\MHS\python\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11BC8C-1527-444F-A03A-E4D3CA6B95FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B9552-ADAB-4E78-9DC1-60573328D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="21600" windowHeight="12670" xr2:uid="{78FB5997-4352-4044-95F3-42A4A8704E81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="1" xr2:uid="{78FB5997-4352-4044-95F3-42A4A8704E81}"/>
   </bookViews>
   <sheets>
     <sheet name="Ladung" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B65BF7B8-E306-4049-800C-FDEA5AD13097}</author>
+    <author>tc={53B4F3C3-C842-4383-9CD6-48F92C63B0E6}</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{B65BF7B8-E306-4049-800C-FDEA5AD13097}">
+      <text>
+        <t xml:space="preserve">[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Wir haben nicht geleich den wert eingestellt gebkommen 
+</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{53B4F3C3-C842-4383-9CD6-48F92C63B0E6}">
+      <text>
+        <t xml:space="preserve">[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Absinken wie wir nur den h2 in der Leitung genutz haben und nicht aus dem speicher der war nicht ganz auf </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1BF81F81-DC15-4772-B245-DF072F748F6C}</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{1BF81F81-DC15-4772-B245-DF072F748F6C}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Durch den Strom eingestellt (Entläd durch den Spühlvorgang)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>t_m</t>
   </si>
@@ -49,6 +95,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -195,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -213,6 +265,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -228,6 +299,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Simon Hinner" id="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" userId="0877348f6d35f0c5" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,17 +622,37 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" dT="2024-11-27T13:36:46.72" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{B65BF7B8-E306-4049-800C-FDEA5AD13097}">
+    <text xml:space="preserve">Wir haben nicht geleich den wert eingestellt gebkommen 
+</text>
+  </threadedComment>
+  <threadedComment ref="E8" dT="2024-11-27T13:48:15.87" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{53B4F3C3-C842-4383-9CD6-48F92C63B0E6}">
+    <text xml:space="preserve">Absinken wie wir nur den h2 in der Leitung genutz haben und nicht aus dem speicher der war nicht ganz auf </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" dT="2024-11-27T14:23:22.23" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{1BF81F81-DC15-4772-B245-DF072F748F6C}">
+    <text>Durch den Strom eingestellt (Entläd durch den Spühlvorgang)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362B9089-B197-4E3E-AF8E-FA42E51929D1}">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362B9089-B197-4E3E-AF8E-FA42E51929D1}">
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +665,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -583,8 +686,14 @@
       <c r="D2" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="17">
+        <v>4.75</v>
+      </c>
+      <c r="F2">
+        <v>6.4889999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -598,8 +707,11 @@
       <c r="D3" s="4">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -613,8 +725,11 @@
       <c r="D4" s="4">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -628,8 +743,11 @@
       <c r="D5" s="4">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="8">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -643,8 +761,11 @@
       <c r="D6" s="4">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -658,8 +779,11 @@
       <c r="D7" s="4">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -673,8 +797,11 @@
       <c r="D8" s="4">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -688,8 +815,11 @@
       <c r="D9" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -703,8 +833,11 @@
       <c r="D10" s="4">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -718,8 +851,11 @@
       <c r="D11" s="4">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -733,8 +869,14 @@
       <c r="D12" s="4">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>6.492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -748,8 +890,11 @@
       <c r="D13" s="5">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="18">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -763,8 +908,11 @@
       <c r="D14" s="5">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="6">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -778,8 +926,11 @@
       <c r="D15" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="6">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -793,8 +944,11 @@
       <c r="D16" s="5">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="6">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -808,8 +962,11 @@
       <c r="D17" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="6">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -823,8 +980,11 @@
       <c r="D18" s="5">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="6">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -838,8 +998,11 @@
       <c r="D19" s="5">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="6">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -853,8 +1016,11 @@
       <c r="D20" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="6">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9.5</v>
       </c>
@@ -868,8 +1034,11 @@
       <c r="D21" s="5">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="6">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -883,8 +1052,11 @@
       <c r="D22" s="5">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="6">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10.5</v>
       </c>
@@ -898,8 +1070,11 @@
       <c r="D23" s="5">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="6">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -913,8 +1088,11 @@
       <c r="D24" s="5">
         <v>31.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11.5</v>
       </c>
@@ -928,8 +1106,11 @@
       <c r="D25" s="5">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>12</v>
       </c>
@@ -943,8 +1124,11 @@
       <c r="D26" s="5">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>12.5</v>
       </c>
@@ -958,8 +1142,11 @@
       <c r="D27" s="5">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="6">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -973,8 +1160,14 @@
       <c r="D28" s="6">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>6.5030000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>13.5</v>
       </c>
@@ -988,8 +1181,11 @@
       <c r="D29" s="6">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -1003,8 +1199,11 @@
       <c r="D30" s="6">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>14.5</v>
       </c>
@@ -1018,8 +1217,11 @@
       <c r="D31" s="6">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>15</v>
       </c>
@@ -1033,8 +1235,11 @@
       <c r="D32" s="6">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>15.5</v>
       </c>
@@ -1048,8 +1253,11 @@
       <c r="D33" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>16</v>
       </c>
@@ -1063,8 +1271,11 @@
       <c r="D34" s="6">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>16.5</v>
       </c>
@@ -1078,8 +1289,11 @@
       <c r="D35" s="7">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>17</v>
       </c>
@@ -1093,8 +1307,11 @@
       <c r="D36" s="6">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>17.5</v>
       </c>
@@ -1108,8 +1325,11 @@
       <c r="D37" s="6">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>18</v>
       </c>
@@ -1123,8 +1343,11 @@
       <c r="D38" s="6">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>18.5</v>
       </c>
@@ -1138,8 +1361,11 @@
       <c r="D39" s="6">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>19</v>
       </c>
@@ -1153,8 +1379,11 @@
       <c r="D40" s="6">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>19.5</v>
       </c>
@@ -1168,8 +1397,11 @@
       <c r="D41" s="6">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>20</v>
       </c>
@@ -1183,8 +1415,11 @@
       <c r="D42" s="6">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>20.5</v>
       </c>
@@ -1198,8 +1433,11 @@
       <c r="D43" s="6">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>21</v>
       </c>
@@ -1213,8 +1451,11 @@
       <c r="D44" s="9">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>21.5</v>
       </c>
@@ -1228,8 +1469,14 @@
       <c r="D45" s="10">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="F45">
+        <v>6.5030000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -1243,8 +1490,11 @@
       <c r="D46" s="10">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" s="8">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>22.5</v>
       </c>
@@ -1258,8 +1508,11 @@
       <c r="D47" s="10">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="8">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>23</v>
       </c>
@@ -1273,8 +1526,11 @@
       <c r="D48" s="10">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48" s="8">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>23.5</v>
       </c>
@@ -1288,8 +1544,11 @@
       <c r="D49" s="10">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="8">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>24</v>
       </c>
@@ -1303,8 +1562,11 @@
       <c r="D50" s="10">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="8">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>24.5</v>
       </c>
@@ -1318,8 +1580,11 @@
       <c r="D51" s="10">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="8">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>25</v>
       </c>
@@ -1333,8 +1598,11 @@
       <c r="D52" s="10">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="8">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>25.5</v>
       </c>
@@ -1348,8 +1616,11 @@
       <c r="D53" s="10">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="8">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>26</v>
       </c>
@@ -1363,8 +1634,11 @@
       <c r="D54" s="10">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54" s="8">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>26.5</v>
       </c>
@@ -1378,8 +1652,11 @@
       <c r="D55" s="10">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="8">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>27</v>
       </c>
@@ -1393,8 +1670,11 @@
       <c r="D56" s="10">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" s="8">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>27.5</v>
       </c>
@@ -1408,8 +1688,11 @@
       <c r="D57" s="10">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="8">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>28</v>
       </c>
@@ -1423,8 +1706,11 @@
       <c r="D58" s="10">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58" s="8">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>28.5</v>
       </c>
@@ -1438,8 +1724,11 @@
       <c r="D59" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>29</v>
       </c>
@@ -1453,8 +1742,11 @@
       <c r="D60" s="10">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60" s="8">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>29.5</v>
       </c>
@@ -1468,8 +1760,11 @@
       <c r="D61" s="10">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61" s="8">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>30</v>
       </c>
@@ -1483,8 +1778,11 @@
       <c r="D62" s="10">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62" s="8">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>30.5</v>
       </c>
@@ -1498,8 +1796,11 @@
       <c r="D63" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63" s="8">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>31</v>
       </c>
@@ -1513,8 +1814,11 @@
       <c r="D64" s="6">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="6">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>31.5</v>
       </c>
@@ -1528,8 +1832,11 @@
       <c r="D65" s="6">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65" s="6">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>32</v>
       </c>
@@ -1543,8 +1850,11 @@
       <c r="D66" s="6">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>32.5</v>
       </c>
@@ -1558,8 +1868,11 @@
       <c r="D67" s="6">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67" s="6">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>33</v>
       </c>
@@ -1573,23 +1886,30 @@
       <c r="D68" s="6">
         <v>20.7</v>
       </c>
+      <c r="E68" s="6">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <v>6.52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E0754-B43A-4E62-84F6-3634E11422FE}">
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E0754-B43A-4E62-84F6-3634E11422FE}">
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1602,8 +1922,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1617,8 +1943,14 @@
       <c r="D2" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E2" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>0.5</v>
       </c>
@@ -1632,8 +1964,11 @@
       <c r="D3" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1647,8 +1982,11 @@
       <c r="D4" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E4" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>1.5</v>
       </c>
@@ -1662,8 +2000,11 @@
       <c r="D5" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1677,8 +2018,11 @@
       <c r="D6" s="4">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E6" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>2.5</v>
       </c>
@@ -1692,8 +2036,11 @@
       <c r="D7" s="4">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1707,8 +2054,11 @@
       <c r="D8" s="4">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E8" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>3.5</v>
       </c>
@@ -1722,8 +2072,11 @@
       <c r="D9" s="4">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1737,8 +2090,11 @@
       <c r="D10" s="4">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E10" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>4.5</v>
       </c>
@@ -1752,8 +2108,11 @@
       <c r="D11" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1767,8 +2126,11 @@
       <c r="D12" s="4">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E12" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>5.5</v>
       </c>
@@ -1782,8 +2144,14 @@
       <c r="D13" s="14">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="20">
+        <v>11.1</v>
+      </c>
+      <c r="F13">
+        <v>6.5170000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1797,8 +2165,11 @@
       <c r="D14" s="15">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E14" s="8">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>6.5</v>
       </c>
@@ -1812,8 +2183,11 @@
       <c r="D15" s="15">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="21">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1827,8 +2201,11 @@
       <c r="D16" s="15">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E16" s="21">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>7.5</v>
       </c>
@@ -1842,8 +2219,11 @@
       <c r="D17" s="15">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="8">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1857,8 +2237,11 @@
       <c r="D18" s="15">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E18" s="21">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>8.5</v>
       </c>
@@ -1872,8 +2255,11 @@
       <c r="D19" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="8">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1887,8 +2273,11 @@
       <c r="D20" s="15">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E20" s="21">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
         <v>9.5</v>
       </c>
@@ -1902,8 +2291,11 @@
       <c r="D21" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="21">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1917,8 +2309,11 @@
       <c r="D22" s="15">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E22" s="8">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="12">
         <v>10.5</v>
       </c>
@@ -1932,8 +2327,11 @@
       <c r="D23" s="15">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="8">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>11</v>
       </c>
@@ -1947,8 +2345,14 @@
       <c r="D24" s="16">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E24" s="22">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>6.5110000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="12">
         <v>11.5</v>
       </c>
@@ -1962,8 +2366,11 @@
       <c r="D25" s="10">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>12</v>
       </c>
@@ -1977,8 +2384,11 @@
       <c r="D26" s="10">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="12">
         <v>12.5</v>
       </c>
@@ -1992,8 +2402,11 @@
       <c r="D27" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>13</v>
       </c>
@@ -2007,8 +2420,11 @@
       <c r="D28" s="10">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="12">
         <v>13.5</v>
       </c>
@@ -2022,8 +2438,11 @@
       <c r="D29" s="10">
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2037,8 +2456,11 @@
       <c r="D30" s="10">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="12">
         <v>14.5</v>
       </c>
@@ -2052,8 +2474,11 @@
       <c r="D31" s="10">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>15</v>
       </c>
@@ -2067,8 +2492,11 @@
       <c r="D32" s="10">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="12">
         <v>15.5</v>
       </c>
@@ -2082,8 +2510,11 @@
       <c r="D33" s="10">
         <v>44.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>16</v>
       </c>
@@ -2097,8 +2528,11 @@
       <c r="D34" s="10">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>16.5</v>
       </c>
@@ -2112,8 +2546,14 @@
       <c r="D35" s="10">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" s="23">
+        <v>11.4</v>
+      </c>
+      <c r="F35">
+        <v>6.5110000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>17</v>
       </c>
@@ -2127,8 +2567,11 @@
       <c r="D36" s="10">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E36" s="23">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>17.5</v>
       </c>
@@ -2142,8 +2585,11 @@
       <c r="D37" s="10">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" s="23">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>18</v>
       </c>
@@ -2157,8 +2603,11 @@
       <c r="D38" s="10">
         <v>48.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E38" s="23">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="12">
         <v>18.5</v>
       </c>
@@ -2172,8 +2621,11 @@
       <c r="D39" s="10">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="23">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
@@ -2187,8 +2639,11 @@
       <c r="D40" s="10">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E40" s="23">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>19.5</v>
       </c>
@@ -2202,8 +2657,11 @@
       <c r="D41" s="10">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" s="23">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>20</v>
       </c>
@@ -2217,8 +2675,11 @@
       <c r="D42" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E42" s="23">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="12">
         <v>20.5</v>
       </c>
@@ -2232,8 +2693,11 @@
       <c r="D43" s="10">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>21</v>
       </c>
@@ -2247,8 +2711,11 @@
       <c r="D44" s="10">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E44" s="23">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="12">
         <v>21.5</v>
       </c>
@@ -2262,8 +2729,11 @@
       <c r="D45" s="10">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" s="23">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>22</v>
       </c>
@@ -2277,8 +2747,11 @@
       <c r="D46" s="10">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E46" s="23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="12">
         <v>22.5</v>
       </c>
@@ -2292,8 +2765,11 @@
       <c r="D47" s="10">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>23</v>
       </c>
@@ -2307,8 +2783,11 @@
       <c r="D48" s="10">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E48" s="23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="12">
         <v>23.5</v>
       </c>
@@ -2322,8 +2801,11 @@
       <c r="D49" s="10">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>24</v>
       </c>
@@ -2337,8 +2819,11 @@
       <c r="D50" s="10">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E50" s="23">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="12">
         <v>24.5</v>
       </c>
@@ -2352,8 +2837,11 @@
       <c r="D51" s="10">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>25</v>
       </c>
@@ -2367,8 +2855,11 @@
       <c r="D52" s="10">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E52" s="23">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="12">
         <v>25.5</v>
       </c>
@@ -2382,8 +2873,11 @@
       <c r="D53" s="10">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="23">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>26</v>
       </c>
@@ -2397,8 +2891,11 @@
       <c r="D54" s="10">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E54" s="23">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="12">
         <v>26.5</v>
       </c>
@@ -2412,8 +2909,11 @@
       <c r="D55" s="10">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="23">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>27</v>
       </c>
@@ -2427,8 +2927,11 @@
       <c r="D56" s="10">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E56" s="23">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A57" s="12">
         <v>27.5</v>
       </c>
@@ -2442,8 +2945,11 @@
       <c r="D57" s="10">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="23">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>28</v>
       </c>
@@ -2457,8 +2963,15 @@
       <c r="D58" s="10">
         <v>49.7</v>
       </c>
+      <c r="E58" s="23">
+        <v>10.55</v>
+      </c>
+      <c r="F58">
+        <v>6.4980000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MHS/python/RawData/geasamt.xlsx
+++ b/MHS/python/RawData/geasamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeu\Documents\0 Studium\Master\1. Semester\ESP-PÜ\Git\MHS\python\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B9552-ADAB-4E78-9DC1-60573328D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03316411-62CB-4D8C-B097-C2B526A5D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="1" xr2:uid="{78FB5997-4352-4044-95F3-42A4A8704E81}"/>
   </bookViews>
@@ -40,7 +40,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B65BF7B8-E306-4049-800C-FDEA5AD13097}</author>
+    <author>tc={1B661192-E803-4BF6-8313-FBD6AD1E70F7}</author>
     <author>tc={53B4F3C3-C842-4383-9CD6-48F92C63B0E6}</author>
+    <author>tc={00D3C25B-B7D3-4CFA-BFCE-76AE8951991D}</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{B65BF7B8-E306-4049-800C-FDEA5AD13097}">
@@ -52,7 +54,24 @@
 </t>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{53B4F3C3-C842-4383-9CD6-48F92C63B0E6}">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{1B661192-E803-4BF6-8313-FBD6AD1E70F7}">
+      <text>
+        <t xml:space="preserve">[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Wir haben nicht geleich den wert eingestellt gebkommen 
+</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="2" shapeId="0" xr:uid="{53B4F3C3-C842-4383-9CD6-48F92C63B0E6}">
+      <text>
+        <t xml:space="preserve">[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Absinken wie wir nur den h2 in der Leitung genutz haben und nicht aus dem speicher der war nicht ganz auf </t>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="3" shapeId="0" xr:uid="{00D3C25B-B7D3-4CFA-BFCE-76AE8951991D}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -68,9 +87,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1BF81F81-DC15-4772-B245-DF072F748F6C}</author>
+    <author>tc={BD80DA04-D267-4673-826A-51561D652E9A}</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{1BF81F81-DC15-4772-B245-DF072F748F6C}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Durch den Strom eingestellt (Entläd durch den Spühlvorgang)</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{BD80DA04-D267-4673-826A-51561D652E9A}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -83,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
   <si>
     <t>t_m</t>
   </si>
@@ -110,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +157,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -260,7 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -628,7 +648,14 @@
     <text xml:space="preserve">Wir haben nicht geleich den wert eingestellt gebkommen 
 </text>
   </threadedComment>
+  <threadedComment ref="I2" dT="2024-11-27T13:36:46.72" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{1B661192-E803-4BF6-8313-FBD6AD1E70F7}">
+    <text xml:space="preserve">Wir haben nicht geleich den wert eingestellt gebkommen 
+</text>
+  </threadedComment>
   <threadedComment ref="E8" dT="2024-11-27T13:48:15.87" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{53B4F3C3-C842-4383-9CD6-48F92C63B0E6}">
+    <text xml:space="preserve">Absinken wie wir nur den h2 in der Leitung genutz haben und nicht aus dem speicher der war nicht ganz auf </text>
+  </threadedComment>
+  <threadedComment ref="I8" dT="2024-11-27T13:48:15.87" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{00D3C25B-B7D3-4CFA-BFCE-76AE8951991D}">
     <text xml:space="preserve">Absinken wie wir nur den h2 in der Leitung genutz haben und nicht aus dem speicher der war nicht ganz auf </text>
   </threadedComment>
 </ThreadedComments>
@@ -639,20 +666,23 @@
   <threadedComment ref="E2" dT="2024-11-27T14:23:22.23" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{1BF81F81-DC15-4772-B245-DF072F748F6C}">
     <text>Durch den Strom eingestellt (Entläd durch den Spühlvorgang)</text>
   </threadedComment>
+  <threadedComment ref="I2" dT="2024-11-27T14:23:22.23" personId="{C8081B6B-BF94-46E1-9C6D-6B05D2A23178}" id="{BD80DA04-D267-4673-826A-51561D652E9A}">
+    <text>Durch den Strom eingestellt (Entläd durch den Spühlvorgang)</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362B9089-B197-4E3E-AF8E-FA42E51929D1}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +701,33 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -686,14 +741,38 @@
       <c r="D2" s="4">
         <v>23</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>4.75</v>
       </c>
       <c r="F2">
         <v>6.4889999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
+        <v>4.75</v>
+      </c>
+      <c r="J2">
+        <v>5.5</v>
+      </c>
+      <c r="K2" s="17">
+        <v>16.95</v>
+      </c>
+      <c r="L2" s="2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>21.5</v>
+      </c>
+      <c r="O2" s="16">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -710,8 +789,32 @@
       <c r="E3" s="8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6">
+        <v>16.55</v>
+      </c>
+      <c r="L3">
+        <v>13.5</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>22</v>
+      </c>
+      <c r="O3" s="8">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -728,8 +831,32 @@
       <c r="E4" s="8">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="J4">
+        <v>6.5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>22.5</v>
+      </c>
+      <c r="O4" s="8">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -746,8 +873,32 @@
       <c r="E5" s="8">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="L5">
+        <v>14.5</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>23</v>
+      </c>
+      <c r="O5" s="8">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -764,8 +915,32 @@
       <c r="E6" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="J6">
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>23.5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -782,8 +957,32 @@
       <c r="E7" s="8">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6">
+        <v>16.05</v>
+      </c>
+      <c r="L7">
+        <v>15.5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>24</v>
+      </c>
+      <c r="O7" s="8">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -800,8 +999,32 @@
       <c r="E8" s="8">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="J8">
+        <v>8.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="L8" s="2">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>24.5</v>
+      </c>
+      <c r="O8" s="8">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -818,8 +1041,32 @@
       <c r="E9" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9</v>
+      </c>
+      <c r="K9" s="6">
+        <v>15.55</v>
+      </c>
+      <c r="L9">
+        <v>16.5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -836,8 +1083,32 @@
       <c r="E10" s="8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="J10">
+        <v>9.5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>25.5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -854,8 +1125,32 @@
       <c r="E11" s="8">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="L11">
+        <v>17.5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>26</v>
+      </c>
+      <c r="O11" s="8">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -872,11 +1167,32 @@
       <c r="E12" s="8">
         <v>0.5</v>
       </c>
-      <c r="F12">
-        <v>6.492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>10.5</v>
+      </c>
+      <c r="K12" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="L12" s="2">
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>26.5</v>
+      </c>
+      <c r="O12" s="8">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -890,11 +1206,33 @@
       <c r="D13" s="5">
         <v>24.5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>6.492</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="2">
+        <v>11</v>
+      </c>
+      <c r="K13" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="L13">
+        <v>18.5</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>27</v>
+      </c>
+      <c r="O13" s="8">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -911,8 +1249,26 @@
       <c r="E14" s="6">
         <v>16.55</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>11.5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>27.5</v>
+      </c>
+      <c r="O14" s="8">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -929,8 +1285,26 @@
       <c r="E15" s="6">
         <v>16.350000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J15" s="2">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="L15">
+        <v>19.5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>28</v>
+      </c>
+      <c r="O15" s="8">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -947,8 +1321,26 @@
       <c r="E16" s="6">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>12.5</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10.25</v>
+      </c>
+      <c r="L16" s="2">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>28.5</v>
+      </c>
+      <c r="O16" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -965,8 +1357,22 @@
       <c r="E17" s="6">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J17" s="2"/>
+      <c r="K17" s="6"/>
+      <c r="L17">
+        <v>20.5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>29</v>
+      </c>
+      <c r="O17" s="8">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -983,8 +1389,20 @@
       <c r="E18" s="6">
         <v>16.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L18" s="2">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>29.5</v>
+      </c>
+      <c r="O18" s="8">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -1001,8 +1419,14 @@
       <c r="E19" s="6">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N19" s="2">
+        <v>30</v>
+      </c>
+      <c r="O19" s="8">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -1019,8 +1443,14 @@
       <c r="E20" s="6">
         <v>15.55</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>30.5</v>
+      </c>
+      <c r="O20" s="8">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9.5</v>
       </c>
@@ -1037,8 +1467,14 @@
       <c r="E21" s="6">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N21" s="2">
+        <v>31</v>
+      </c>
+      <c r="O21" s="6">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1055,8 +1491,14 @@
       <c r="E22" s="6">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>31.5</v>
+      </c>
+      <c r="O22" s="6">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10.5</v>
       </c>
@@ -1073,8 +1515,14 @@
       <c r="E23" s="6">
         <v>14.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N23" s="2">
+        <v>32</v>
+      </c>
+      <c r="O23" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -1091,8 +1539,14 @@
       <c r="E24" s="6">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N24">
+        <v>32.5</v>
+      </c>
+      <c r="O24" s="6">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11.5</v>
       </c>
@@ -1109,8 +1563,14 @@
       <c r="E25" s="6">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N25" s="2">
+        <v>33</v>
+      </c>
+      <c r="O25" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>12</v>
       </c>
@@ -1128,7 +1588,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>12.5</v>
       </c>
@@ -1146,7 +1606,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -1160,14 +1620,14 @@
       <c r="D28" s="6">
         <v>31.9</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <v>0</v>
       </c>
       <c r="F28">
         <v>6.5030000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>13.5</v>
       </c>
@@ -1181,11 +1641,11 @@
       <c r="D29" s="6">
         <v>33.5</v>
       </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -1199,11 +1659,11 @@
       <c r="D30" s="6">
         <v>31.8</v>
       </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>14.5</v>
       </c>
@@ -1217,11 +1677,11 @@
       <c r="D31" s="6">
         <v>30.3</v>
       </c>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>15</v>
       </c>
@@ -1235,7 +1695,7 @@
       <c r="D32" s="6">
         <v>29.3</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1253,7 +1713,7 @@
       <c r="D33" s="6">
         <v>28.3</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1271,7 +1731,7 @@
       <c r="D34" s="6">
         <v>27.4</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1289,7 +1749,7 @@
       <c r="D35" s="7">
         <v>26.6</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1307,7 +1767,7 @@
       <c r="D36" s="6">
         <v>26.6</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1325,7 +1785,7 @@
       <c r="D37" s="6">
         <v>25.3</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1343,7 +1803,7 @@
       <c r="D38" s="6">
         <v>24.6</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1821,7 @@
       <c r="D39" s="6">
         <v>23.8</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1379,7 +1839,7 @@
       <c r="D40" s="6">
         <v>23.1</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1397,7 +1857,7 @@
       <c r="D41" s="6">
         <v>22.4</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1415,7 +1875,7 @@
       <c r="D42" s="6">
         <v>21.8</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1433,7 +1893,7 @@
       <c r="D43" s="6">
         <v>21.2</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1451,7 +1911,7 @@
       <c r="D44" s="9">
         <v>20.6</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1929,7 @@
       <c r="D45" s="10">
         <v>19.399999999999999</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="16">
         <v>16.5</v>
       </c>
       <c r="F45">
@@ -1895,21 +2355,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E0754-B43A-4E62-84F6-3634E11422FE}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1928,9 +2392,33 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1943,15 +2431,47 @@
       <c r="D2" s="11">
         <v>24</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>4.5999999999999996</v>
       </c>
       <c r="F2">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="12">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K2" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="O2" s="22">
+        <v>11.4</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>0.5</v>
       </c>
       <c r="B3">
@@ -1967,9 +2487,41 @@
       <c r="E3" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6</v>
+      </c>
+      <c r="K3" s="8">
+        <v>11.25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>17</v>
+      </c>
+      <c r="O3" s="22">
+        <v>10.75</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4">
@@ -1985,9 +2537,41 @@
       <c r="E4" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K4" s="20">
+        <v>11.65</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="O4" s="22">
+        <v>10.55</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <v>1.5</v>
       </c>
       <c r="B5">
@@ -2003,9 +2587,41 @@
       <c r="E5" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="H5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="20">
+        <v>11.05</v>
+      </c>
+      <c r="L5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>18</v>
+      </c>
+      <c r="O5" s="22">
+        <v>10.55</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6">
@@ -2021,9 +2637,41 @@
       <c r="E6" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="12">
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>13</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="O6" s="22">
+        <v>10.45</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>2.5</v>
       </c>
       <c r="B7">
@@ -2039,9 +2687,41 @@
       <c r="E7" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="H7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="20">
+        <v>11.15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>19</v>
+      </c>
+      <c r="O7" s="22">
+        <v>10.4</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8">
@@ -2057,9 +2737,41 @@
       <c r="E8" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="12">
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>11.45</v>
+      </c>
+      <c r="L8" s="2">
+        <v>14</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="O8" s="22">
+        <v>10.4</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <v>3.5</v>
       </c>
       <c r="B9">
@@ -2075,9 +2787,41 @@
       <c r="E9" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="H9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9</v>
+      </c>
+      <c r="K9" s="20">
+        <v>11.3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>20</v>
+      </c>
+      <c r="O9" s="22">
+        <v>10.8</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10">
@@ -2093,9 +2837,41 @@
       <c r="E10" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="12">
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K10" s="20">
+        <v>11.55</v>
+      </c>
+      <c r="L10" s="2">
+        <v>15</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="O10" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <v>4.5</v>
       </c>
       <c r="B11">
@@ -2111,9 +2887,41 @@
       <c r="E11" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="H11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="8">
+        <v>11.35</v>
+      </c>
+      <c r="L11" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>21</v>
+      </c>
+      <c r="O11" s="22">
+        <v>10.45</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
       <c r="B12">
@@ -2129,30 +2937,82 @@
       <c r="E12" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="12">
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K12" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>16</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="O12" s="22">
+        <v>10.4</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5.5</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>5.9</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>21.4</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>11.1</v>
       </c>
       <c r="F13">
         <v>6.5170000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="H13" s="2"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>22</v>
+      </c>
+      <c r="O13" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
       <c r="B14">
@@ -2162,15 +3022,35 @@
       <c r="C14" s="3">
         <v>5.3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>21.3</v>
       </c>
       <c r="E14" s="8">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="12">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="O14" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>6.5</v>
       </c>
       <c r="B15">
@@ -2180,15 +3060,35 @@
       <c r="C15" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>21.1</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>23</v>
+      </c>
+      <c r="O15" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>7</v>
       </c>
       <c r="B16">
@@ -2198,15 +3098,35 @@
       <c r="C16" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>20.6</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="12">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="O16" s="22">
+        <v>11</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>7.5</v>
       </c>
       <c r="B17">
@@ -2216,15 +3136,21 @@
       <c r="C17" s="3">
         <v>3.66</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>20.100000000000001</v>
       </c>
       <c r="E17" s="8">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="N17" s="2">
+        <v>24</v>
+      </c>
+      <c r="O17" s="22">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>8</v>
       </c>
       <c r="B18">
@@ -2234,15 +3160,21 @@
       <c r="C18" s="3">
         <v>3.17</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>19.600000000000001</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>11.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="12">
+      <c r="N18" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="O18" s="22">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>8.5</v>
       </c>
       <c r="B19">
@@ -2252,15 +3184,21 @@
       <c r="C19" s="3">
         <v>2.65</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>19</v>
       </c>
       <c r="E19" s="8">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="N19" s="2">
+        <v>25</v>
+      </c>
+      <c r="O19" s="22">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>9</v>
       </c>
       <c r="B20">
@@ -2270,15 +3208,21 @@
       <c r="C20" s="3">
         <v>2.33</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>18.5</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="12">
+      <c r="N20" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="O20" s="22">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>9.5</v>
       </c>
       <c r="B21">
@@ -2288,15 +3232,21 @@
       <c r="C21" s="3">
         <v>1.95</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>18</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="N21" s="2">
+        <v>26</v>
+      </c>
+      <c r="O21" s="22">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>10</v>
       </c>
       <c r="B22">
@@ -2306,15 +3256,21 @@
       <c r="C22" s="3">
         <v>1.59</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>17.399999999999999</v>
       </c>
       <c r="E22" s="8">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="12">
+      <c r="N22" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="O22" s="22">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
         <v>10.5</v>
       </c>
       <c r="B23">
@@ -2324,36 +3280,48 @@
       <c r="C23" s="3">
         <v>1.23</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>16.8</v>
       </c>
       <c r="E23" s="8">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="N23" s="2">
+        <v>27</v>
+      </c>
+      <c r="O23" s="22">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
         <v>11</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>3.09</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>15.5</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>0</v>
       </c>
       <c r="F24">
         <v>6.5110000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12">
+      <c r="N24" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="O24" s="22">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
         <v>11.5</v>
       </c>
       <c r="B25">
@@ -2366,12 +3334,18 @@
       <c r="D25" s="10">
         <v>20.5</v>
       </c>
-      <c r="E25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>28</v>
+      </c>
+      <c r="O25" s="22">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
         <v>12</v>
       </c>
       <c r="B26">
@@ -2384,12 +3358,12 @@
       <c r="D26" s="10">
         <v>25.7</v>
       </c>
-      <c r="E26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="12">
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
         <v>12.5</v>
       </c>
       <c r="B27">
@@ -2402,12 +3376,12 @@
       <c r="D27" s="10">
         <v>30</v>
       </c>
-      <c r="E27" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28">
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
         <v>13</v>
       </c>
       <c r="B28">
@@ -2420,12 +3394,12 @@
       <c r="D28" s="10">
         <v>35.6</v>
       </c>
-      <c r="E28" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="12">
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
         <v>13.5</v>
       </c>
       <c r="B29">
@@ -2438,12 +3412,12 @@
       <c r="D29" s="10">
         <v>36.799999999999997</v>
       </c>
-      <c r="E29" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30">
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
         <v>14</v>
       </c>
       <c r="B30">
@@ -2456,12 +3430,12 @@
       <c r="D30" s="10">
         <v>39.200000000000003</v>
       </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="12">
+      <c r="E30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
         <v>14.5</v>
       </c>
       <c r="B31">
@@ -2474,12 +3448,12 @@
       <c r="D31" s="10">
         <v>40.799999999999997</v>
       </c>
-      <c r="E31" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
         <v>15</v>
       </c>
       <c r="B32">
@@ -2492,12 +3466,12 @@
       <c r="D32" s="10">
         <v>42.6</v>
       </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="12">
+      <c r="E32" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
         <v>15.5</v>
       </c>
       <c r="B33">
@@ -2510,12 +3484,12 @@
       <c r="D33" s="10">
         <v>44.6</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>16</v>
       </c>
       <c r="B34">
@@ -2528,12 +3502,12 @@
       <c r="D34" s="10">
         <v>45.8</v>
       </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="12">
+      <c r="E34" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>16.5</v>
       </c>
       <c r="B35">
@@ -2546,7 +3520,7 @@
       <c r="D35" s="10">
         <v>47.1</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>11.4</v>
       </c>
       <c r="F35">
@@ -2554,7 +3528,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>17</v>
       </c>
       <c r="B36">
@@ -2567,12 +3541,12 @@
       <c r="D36" s="10">
         <v>47.8</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>10.75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="12">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>17.5</v>
       </c>
       <c r="B37">
@@ -2585,12 +3559,12 @@
       <c r="D37" s="10">
         <v>49</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>10.55</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>18</v>
       </c>
       <c r="B38">
@@ -2603,12 +3577,12 @@
       <c r="D38" s="10">
         <v>48.9</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>10.55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="12">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>18.5</v>
       </c>
       <c r="B39">
@@ -2621,12 +3595,12 @@
       <c r="D39" s="10">
         <v>49.1</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>10.45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>19</v>
       </c>
       <c r="B40">
@@ -2639,12 +3613,12 @@
       <c r="D40" s="10">
         <v>49.4</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>10.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="12">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>19.5</v>
       </c>
       <c r="B41">
@@ -2657,12 +3631,12 @@
       <c r="D41" s="10">
         <v>49.9</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>10.4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>20</v>
       </c>
       <c r="B42">
@@ -2675,12 +3649,12 @@
       <c r="D42" s="10">
         <v>50</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>10.8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="12">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>20.5</v>
       </c>
       <c r="B43">
@@ -2693,12 +3667,12 @@
       <c r="D43" s="10">
         <v>50.3</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>10.5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>21</v>
       </c>
       <c r="B44">
@@ -2711,12 +3685,12 @@
       <c r="D44" s="10">
         <v>50.4</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>10.45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="12">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>21.5</v>
       </c>
       <c r="B45">
@@ -2729,12 +3703,12 @@
       <c r="D45" s="10">
         <v>50.8</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>10.4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>22</v>
       </c>
       <c r="B46">
@@ -2747,12 +3721,12 @@
       <c r="D46" s="10">
         <v>51</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>10.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="12">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>22.5</v>
       </c>
       <c r="B47">
@@ -2765,12 +3739,12 @@
       <c r="D47" s="10">
         <v>50.6</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>10.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>23</v>
       </c>
       <c r="B48">
@@ -2783,12 +3757,12 @@
       <c r="D48" s="10">
         <v>50.6</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>10.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="12">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>23.5</v>
       </c>
       <c r="B49">
@@ -2801,12 +3775,12 @@
       <c r="D49" s="10">
         <v>50.5</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>24</v>
       </c>
       <c r="B50">
@@ -2819,12 +3793,12 @@
       <c r="D50" s="10">
         <v>50.8</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>10.45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="12">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>24.5</v>
       </c>
       <c r="B51">
@@ -2837,12 +3811,12 @@
       <c r="D51" s="10">
         <v>50.4</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>10.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>25</v>
       </c>
       <c r="B52">
@@ -2855,12 +3829,12 @@
       <c r="D52" s="10">
         <v>50.5</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>12.2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="12">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>25.5</v>
       </c>
       <c r="B53">
@@ -2873,12 +3847,12 @@
       <c r="D53" s="10">
         <v>50.2</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>10.6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>26</v>
       </c>
       <c r="B54">
@@ -2891,12 +3865,12 @@
       <c r="D54" s="10">
         <v>50.5</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>10.55</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="12">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>26.5</v>
       </c>
       <c r="B55">
@@ -2909,12 +3883,12 @@
       <c r="D55" s="10">
         <v>50.1</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>10.55</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>27</v>
       </c>
       <c r="B56">
@@ -2927,12 +3901,12 @@
       <c r="D56" s="10">
         <v>49.9</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>10.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="12">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
         <v>27.5</v>
       </c>
       <c r="B57">
@@ -2945,12 +3919,12 @@
       <c r="D57" s="10">
         <v>49.8</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>10.55</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>28</v>
       </c>
       <c r="B58">
@@ -2963,7 +3937,7 @@
       <c r="D58" s="10">
         <v>49.7</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>10.55</v>
       </c>
       <c r="F58">
@@ -2972,6 +3946,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>